--- a/biology/Zoologie/Carouge_de_Jamaïque/Carouge_de_Jamaïque.xlsx
+++ b/biology/Zoologie/Carouge_de_Jamaïque/Carouge_de_Jamaïque.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Carouge_de_Jama%C3%AFque</t>
+          <t>Carouge_de_Jamaïque</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nesopsar nigerrimus
 Le Carouge de Jamaïque (Nesopsar nigerrimus) est une espèce de passereaux de la famille des Icteridae, la seule représentante du genre Nesopsar.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Carouge_de_Jama%C3%AFque</t>
+          <t>Carouge_de_Jamaïque</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est endémique à la Jamaïque, où l'espèce est limitée à la région de Cockpit, à certaines régions du centre, aux Blue Mountains et aux montagnes John Crow.
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Carouge_de_Jama%C3%AFque</t>
+          <t>Carouge_de_Jamaïque</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les couples occupent de vastes territoires dans une variété de types de forêts humides de montagne.
 Il est menacé par la perte de son habitat.
